--- a/Data/EC/NIT-8300457525.xlsx
+++ b/Data/EC/NIT-8300457525.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05306067-80A5-4599-8318-B5ABB864D40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55AE772E-6B3F-476F-82F1-06A6078C460E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CA78B132-F280-4165-944C-BAEB5EAB8B68}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7B1A60A2-0177-41CA-AB93-27B25E9A1A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,18 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047452363</t>
+  </si>
+  <si>
+    <t>LAURA VANESSA SANCHEZ ZAMBRANO</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
     <t>1003367783</t>
   </si>
   <si>
@@ -72,18 +84,6 @@
   </si>
   <si>
     <t>2303</t>
-  </si>
-  <si>
-    <t>1047452363</t>
-  </si>
-  <si>
-    <t>LAURA VANESSA SANCHEZ ZAMBRANO</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -497,7 +497,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01E788DA-9D5F-F006-66C7-DE9B56340794}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{754AB9A8-D5C9-59B6-3518-FDD3E533F62A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -848,7 +848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D78BD71-B877-423F-BA71-2642A7924C15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8A32AF-F02C-4603-AF44-6DA7E64E2071}">
   <dimension ref="B2:J24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1026,10 +1026,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>21333</v>
+        <v>52200</v>
       </c>
       <c r="G16" s="18">
-        <v>1000000</v>
+        <v>1305000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1040,13 +1040,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>52200</v>
@@ -1063,19 +1063,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18" s="22" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="24">
-        <v>52200</v>
+        <v>21333</v>
       </c>
       <c r="G18" s="24">
-        <v>1305000</v>
+        <v>1000000</v>
       </c>
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
